--- a/biology/Mycologie/Leccinum_aurantiacum/Leccinum_aurantiacum.xlsx
+++ b/biology/Mycologie/Leccinum_aurantiacum/Leccinum_aurantiacum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet orangé des chênes, Bolet des chênes, Bolet rude orange
 Leccinum aurantiacum, autrefois Leccinum quercinum, le Bolet orangé des chênes, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il fait partie d'un complexe d'espèces comprenant d'autres Leccinum à chapeau orangé. Comestible, il est caractérisé par ses mèches rousses et son habitat sous chênes.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum aurantiacum (Bull.) Gray[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus aurantiacus Bull.[1].
-Synonymes
-Leccinum aurantiacum a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum aurantiacum (Bull.) Gray.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus aurantiacus Bull..
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinum aurantiacum a pour synonymes :
 Boletopsis rufa (Schaeff.) Henn.
 Boletus aurantiacus f. lebedevae Vassilkov
 Boletus aurantiacus var. fulvus Pers.
@@ -570,54 +619,231 @@
 Suillus aurantiacus (Bull.) Poiret
 Trachypus aurantiacus (Bull.) Romagn.
 Tubiporus rufus (Schaeff.) Ricken
-Phylogénie
-Autrefois nommé Leccinum quercinum, ce taxon a été déclaré non valide en l'absence de diagnose latine[2].
-Étymologie
-Du latin aurantiacum = orange, faisant référence à la couleur de son chapeau.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet orangé des chênes[3].
-On le connait aussi sous le nom de : bolet des chênes[4], bolet rude orange[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois nommé Leccinum quercinum, ce taxon a été déclaré non valide en l'absence de diagnose latine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du latin aurantiacum = orange, faisant référence à la couleur de son chapeau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet orangé des chênes.
+On le connait aussi sous le nom de : bolet des chênes, bolet rude orange.
 On lui confère également de façon populaire le nom vernaculaire vague et inexact de "Bolet orangé", au même titre que Leccinum aurantiacum, Leccinum albostipitatum, Leccinum vulpinum et Leccinum piceinum, cela pour la simple raison que la couleur de leurs chapeaux est orangée. Ce nom vernaculaire est souvent donné de manière arbitraire à n'importe laquelle de ces espèces par les cueilleurs, rendant le nom de "Bolet orangé" ambigu quant à l'espèce réellement désignée et devenant un terme passe-partout et approximatif pour désigner n'importe quel Bolet rude (Leccinum) à chapeau orangé. De la même façon, ces Bolets rudes à chapeau orangé sont également connus sous les noms régionaux populaires, ambigus et vagues, de "Pible", "Pible orange" ou "Pible rouge".
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Leccinum_aurantiacum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum aurantiacum, le Bolet orangé des chênes, sont les suivantes :
-Son chapeau mesure de 4 à 15 cm, velouté et de couleur rouge brique à brun orangé. La cuticule déborde souvent sur les tubes au bord du chapeau[5].
-L'hyménophore présente des tubes blancs à peine grisâtres puis ochracés à brun ochracé. Les pores sont concolores aux tubes[5].
-Son stipe mesure 5 à 15 cm x 2 à 4 cm. Il est couvert de mèches d'abord blanches mais devenant très vite rousses en partant de la base du pied, puis noircissantes[5]. Il est parfois taché de bleu-vert à sa base.
-La chair est blanche, devenant bleu-gris, gris violacé et enfin noirâtre à la coupe. Sa saveur est douce et son odeur est faible[5].
-La sporée est de couleur jaune verdâtre[4].
-Réactions chimiques
-La chair devient bleue très pâle au FeSO4.
-Caractéristiques microscopiques
-Ses spores sont fusiformes, lisses, à paroi épaisse, vert jaunâtre, mesurant 14 à 20 x 4 à 6 µm. Les basides sont ventrues, clavées, mesurant 22 à 26 x 10 à 12 µm, tétrasporiques, non bouclées. Les cheilocystides sont fusiformes à ventrues, prolongées par un bec, mesurant 28 à 50 x 7 à 12 µm. Pas de pleurocystides. La cuticule trichodermique est en parite dressée, les hyphes sont larges de 7 à 13 µm, pigmentées de brun[4].
+Son chapeau mesure de 4 à 15 cm, velouté et de couleur rouge brique à brun orangé. La cuticule déborde souvent sur les tubes au bord du chapeau.
+L'hyménophore présente des tubes blancs à peine grisâtres puis ochracés à brun ochracé. Les pores sont concolores aux tubes.
+Son stipe mesure 5 à 15 cm x 2 à 4 cm. Il est couvert de mèches d'abord blanches mais devenant très vite rousses en partant de la base du pied, puis noircissantes. Il est parfois taché de bleu-vert à sa base.
+La chair est blanche, devenant bleu-gris, gris violacé et enfin noirâtre à la coupe. Sa saveur est douce et son odeur est faible.
+La sporée est de couleur jaune verdâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair devient bleue très pâle au FeSO4.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_aurantiacum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores sont fusiformes, lisses, à paroi épaisse, vert jaunâtre, mesurant 14 à 20 x 4 à 6 µm. Les basides sont ventrues, clavées, mesurant 22 à 26 x 10 à 12 µm, tétrasporiques, non bouclées. Les cheilocystides sont fusiformes à ventrues, prolongées par un bec, mesurant 28 à 50 x 7 à 12 µm. Pas de pleurocystides. La cuticule trichodermique est en parite dressée, les hyphes sont larges de 7 à 13 µm, pigmentées de brun.
 </t>
         </is>
       </c>
